--- a/SPPSApi/Doc/Template/FS1207_Sub1_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Sub1_Import.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -449,7 +449,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
